--- a/src/main/resources/Addschool.xlsx
+++ b/src/main/resources/Addschool.xlsx
@@ -63,10 +63,10 @@
     <t>School - Mk56</t>
   </si>
   <si>
-    <t>HRMS School</t>
-  </si>
-  <si>
-    <t>Schl - 20</t>
+    <t>Queen Mira International School</t>
+  </si>
+  <si>
+    <t>Schl - 36</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Addschool.xlsx
+++ b/src/main/resources/Addschool.xlsx
@@ -63,10 +63,10 @@
     <t>School - Mk56</t>
   </si>
   <si>
-    <t>Queen Mira International School</t>
-  </si>
-  <si>
-    <t>Schl - 36</t>
+    <t>Queen Meera International School</t>
+  </si>
+  <si>
+    <t>Schl - 37</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/Addschool.xlsx
+++ b/src/main/resources/Addschool.xlsx
@@ -54,19 +54,19 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>Pkn 4367</t>
   </si>
   <si>
     <t>School - Mk56</t>
   </si>
   <si>
-    <t>Queen Meera International School</t>
-  </si>
-  <si>
-    <t>Schl - 37</t>
+    <t>Hogward School</t>
+  </si>
+  <si>
+    <t>Schl - 38</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
   </si>
 </sst>
 </file>
@@ -450,13 +450,13 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>

--- a/src/main/resources/Addschool.xlsx
+++ b/src/main/resources/Addschool.xlsx
@@ -60,13 +60,13 @@
     <t>School - Mk56</t>
   </si>
   <si>
-    <t>Hogward School</t>
-  </si>
-  <si>
-    <t>Schl - 38</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
+    <t>Wednesday Adam School</t>
+  </si>
+  <si>
+    <t>Schl - 41</t>
+  </si>
+  <si>
+    <t>Dawid Warner</t>
   </si>
 </sst>
 </file>
